--- a/database/Export/Tabelas Finais/POF 2017 TBL_6/Tabela6.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_6/Tabela6.xlsx
@@ -414,89 +414,89 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>23.817</v>
+        <v>376.073</v>
       </c>
       <c r="C3">
-        <v>39.926</v>
+        <v>972.597</v>
       </c>
       <c r="D3">
-        <v>113.662</v>
+        <v>2292.291</v>
       </c>
       <c r="E3">
-        <v>115.228</v>
+        <v>978.576</v>
       </c>
       <c r="F3">
-        <v>53.851</v>
+        <v>881.2859999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>376.073</v>
+        <v>892.043</v>
       </c>
       <c r="C4">
-        <v>972.597</v>
+        <v>2704.217</v>
       </c>
       <c r="D4">
-        <v>2292.291</v>
+        <v>3134.777</v>
       </c>
       <c r="E4">
-        <v>978.576</v>
+        <v>2129.358</v>
       </c>
       <c r="F4">
-        <v>881.2859999999999</v>
+        <v>1167.414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>892.043</v>
+        <v>1241.316</v>
       </c>
       <c r="C5">
-        <v>2704.217</v>
+        <v>2800.399</v>
       </c>
       <c r="D5">
-        <v>3134.777</v>
+        <v>2180.726</v>
       </c>
       <c r="E5">
-        <v>2129.358</v>
+        <v>2255.505</v>
       </c>
       <c r="F5">
-        <v>1167.414</v>
+        <v>1326.887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>1241.316</v>
+        <v>23.817</v>
       </c>
       <c r="C6">
-        <v>2800.399</v>
+        <v>39.926</v>
       </c>
       <c r="D6">
-        <v>2180.726</v>
+        <v>113.662</v>
       </c>
       <c r="E6">
-        <v>2255.505</v>
+        <v>115.228</v>
       </c>
       <c r="F6">
-        <v>1326.887</v>
+        <v>53.851</v>
       </c>
     </row>
     <row r="7">

--- a/database/Export/Tabelas Finais/POF 2017 TBL_6/Tabela6.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_6/Tabela6.xlsx
@@ -396,13 +396,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>14704.469</v>
+        <v>14544.469</v>
       </c>
       <c r="C2">
-        <v>66057.912</v>
+        <v>65517.912</v>
       </c>
       <c r="D2">
-        <v>10957.771</v>
+        <v>10950.291</v>
       </c>
       <c r="E2">
         <v>5697.163000000001</v>
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>376.073</v>
+        <v>373.531</v>
       </c>
       <c r="C3">
-        <v>972.597</v>
+        <v>971.061</v>
       </c>
       <c r="D3">
-        <v>2292.291</v>
+        <v>2278.681</v>
       </c>
       <c r="E3">
-        <v>978.576</v>
+        <v>975.443</v>
       </c>
       <c r="F3">
-        <v>881.2859999999999</v>
+        <v>879.937</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>892.043</v>
+        <v>889.163</v>
       </c>
       <c r="C4">
-        <v>2704.217</v>
+        <v>2697.302</v>
       </c>
       <c r="D4">
-        <v>3134.777</v>
+        <v>3120.768</v>
       </c>
       <c r="E4">
-        <v>2129.358</v>
+        <v>2120.706</v>
       </c>
       <c r="F4">
-        <v>1167.414</v>
+        <v>1164.832</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>1241.316</v>
+        <v>1232.42</v>
       </c>
       <c r="C5">
-        <v>2800.399</v>
+        <v>2790.626</v>
       </c>
       <c r="D5">
-        <v>2180.726</v>
+        <v>2173.405</v>
       </c>
       <c r="E5">
-        <v>2255.505</v>
+        <v>2249.912</v>
       </c>
       <c r="F5">
-        <v>1326.887</v>
+        <v>1317.887</v>
       </c>
     </row>
     <row r="6">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>5375.505</v>
+        <v>5354.326</v>
       </c>
       <c r="C7">
-        <v>16868.738</v>
+        <v>16840.078</v>
       </c>
       <c r="D7">
-        <v>23635.438</v>
+        <v>23494.742</v>
       </c>
       <c r="E7">
-        <v>18024.136</v>
+        <v>17973.157</v>
       </c>
       <c r="F7">
-        <v>14364.472</v>
+        <v>14318.286</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>4471.74</v>
+        <v>4435.252</v>
       </c>
       <c r="C8">
-        <v>9059.536</v>
+        <v>9038.713</v>
       </c>
       <c r="D8">
-        <v>10946.45</v>
+        <v>10921.416</v>
       </c>
       <c r="E8">
-        <v>9352.459999999999</v>
+        <v>9339.459999999999</v>
       </c>
       <c r="F8">
-        <v>5686.772</v>
+        <v>5665.839</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>4326.723</v>
+        <v>4228.093</v>
       </c>
       <c r="C10">
-        <v>869.352</v>
+        <v>868.843</v>
       </c>
       <c r="D10">
-        <v>637.798</v>
+        <v>636.221</v>
       </c>
       <c r="E10">
-        <v>467.997</v>
+        <v>465.997</v>
       </c>
       <c r="F10">
         <v>277.52</v>
